--- a/input/country.xlsx
+++ b/input/country.xlsx
@@ -843,8 +843,8 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E51"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,17 +878,17 @@
         <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D2" t="str">
         <f>"https://www.bbb.org/"&amp;A2 &amp; "/" &amp; C2 &amp; "/categories"</f>
-        <v>https://www.bbb.org/us/al/birmingham/categories</v>
+        <v>https://www.bbb.org/us/ny/new-york/categories</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25">
@@ -896,17 +896,17 @@
         <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D51" si="0">"https://www.bbb.org/"&amp;A3 &amp; "/" &amp; C3 &amp; "/categories"</f>
-        <v>https://www.bbb.org/us/ak/anchorage/categories</v>
+        <f>"https://www.bbb.org/"&amp;A3 &amp; "/" &amp; C3 &amp; "/categories"</f>
+        <v>https://www.bbb.org/us/al/birmingham/categories</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25">
@@ -914,17 +914,17 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/az/phoenix/categories</v>
+        <f t="shared" ref="D4:D51" si="0">"https://www.bbb.org/"&amp;A4 &amp; "/" &amp; C4 &amp; "/categories"</f>
+        <v>https://www.bbb.org/us/ak/anchorage/categories</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25">
@@ -932,17 +932,17 @@
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ar/little-rock/categories</v>
+        <v>https://www.bbb.org/us/az/phoenix/categories</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25">
@@ -950,17 +950,17 @@
         <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ca/los-angeles/categories</v>
+        <v>https://www.bbb.org/us/ar/little-rock/categories</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25">
@@ -968,17 +968,17 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/co/denver/categories</v>
+        <v>https://www.bbb.org/us/ca/los-angeles/categories</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25">
@@ -986,17 +986,17 @@
         <v>103</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ct/bridgeport/categories</v>
+        <v>https://www.bbb.org/us/co/denver/categories</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25">
@@ -1004,17 +1004,17 @@
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/de/wilmington/categories</v>
+        <v>https://www.bbb.org/us/ct/bridgeport/categories</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25">
@@ -1022,17 +1022,17 @@
         <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/fl/miami/categories</v>
+        <v>https://www.bbb.org/us/de/wilmington/categories</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25">
@@ -1040,17 +1040,17 @@
         <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ga/atlanta/categories</v>
+        <v>https://www.bbb.org/us/fl/miami/categories</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25">
@@ -1058,17 +1058,17 @@
         <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/hi/honolulu/categories</v>
+        <v>https://www.bbb.org/us/ga/atlanta/categories</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25">
@@ -1076,17 +1076,17 @@
         <v>103</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/id/boise/categories</v>
+        <v>https://www.bbb.org/us/hi/honolulu/categories</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25">
@@ -1094,17 +1094,17 @@
         <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/il/chicago/categories</v>
+        <v>https://www.bbb.org/us/id/boise/categories</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25">
@@ -1112,17 +1112,17 @@
         <v>103</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/in/indianapolis/categories</v>
+        <v>https://www.bbb.org/us/il/chicago/categories</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25">
@@ -1130,17 +1130,17 @@
         <v>103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ia/des-moines/categories</v>
+        <v>https://www.bbb.org/us/in/indianapolis/categories</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25">
@@ -1148,17 +1148,17 @@
         <v>103</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ks/wichita/categories</v>
+        <v>https://www.bbb.org/us/ia/des-moines/categories</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25">
@@ -1166,17 +1166,17 @@
         <v>103</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ky/louisville/categories</v>
+        <v>https://www.bbb.org/us/ks/wichita/categories</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25">
@@ -1184,17 +1184,17 @@
         <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/la/new-orleans/categories</v>
+        <v>https://www.bbb.org/us/ky/louisville/categories</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25">
@@ -1202,17 +1202,17 @@
         <v>103</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/me/portland/categories</v>
+        <v>https://www.bbb.org/us/la/new-orleans/categories</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25">
@@ -1220,17 +1220,17 @@
         <v>103</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/md/baltimore/categories</v>
+        <v>https://www.bbb.org/us/me/portland/categories</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25">
@@ -1238,17 +1238,17 @@
         <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ma/boston/categories</v>
+        <v>https://www.bbb.org/us/md/baltimore/categories</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25">
@@ -1256,17 +1256,17 @@
         <v>103</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/mi/detroit/categories</v>
+        <v>https://www.bbb.org/us/ma/boston/categories</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25">
@@ -1274,17 +1274,17 @@
         <v>103</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/mn/minneapolis/categories</v>
+        <v>https://www.bbb.org/us/mi/detroit/categories</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25">
@@ -1292,17 +1292,17 @@
         <v>103</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ms/jackson/categories</v>
+        <v>https://www.bbb.org/us/mn/minneapolis/categories</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25">
@@ -1310,17 +1310,17 @@
         <v>103</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/mo/kansas/categories</v>
+        <v>https://www.bbb.org/us/ms/jackson/categories</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25">
@@ -1328,17 +1328,17 @@
         <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/mt/billings/categories</v>
+        <v>https://www.bbb.org/us/mo/kansas/categories</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25">
@@ -1346,17 +1346,17 @@
         <v>103</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ne/omaha/categories</v>
+        <v>https://www.bbb.org/us/mt/billings/categories</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25">
@@ -1364,17 +1364,17 @@
         <v>103</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/nv/las-vegas/categories</v>
+        <v>https://www.bbb.org/us/ne/omaha/categories</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25">
@@ -1382,17 +1382,17 @@
         <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/nh/manchester/categories</v>
+        <v>https://www.bbb.org/us/nv/las-vegas/categories</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25">
@@ -1400,17 +1400,17 @@
         <v>103</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/nj/newark/categories</v>
+        <v>https://www.bbb.org/us/nh/manchester/categories</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.25">
@@ -1418,17 +1418,17 @@
         <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/nm/albuquerque/categories</v>
+        <v>https://www.bbb.org/us/nj/newark/categories</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25">
@@ -1436,17 +1436,17 @@
         <v>103</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bbb.org/us/ny/new-york/categories</v>
+        <v>https://www.bbb.org/us/nm/albuquerque/categories</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25">
